--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2941.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2941.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9659170681617557</v>
+        <v>1.394933104515076</v>
       </c>
       <c r="B1">
-        <v>1.955176441416642</v>
+        <v>1.314889311790466</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>3.293345212936401</v>
       </c>
       <c r="D1">
-        <v>2.833659548822636</v>
+        <v>2.821429252624512</v>
       </c>
       <c r="E1">
-        <v>1.445638849009675</v>
+        <v>0.8939221501350403</v>
       </c>
     </row>
   </sheetData>
